--- a/Docs/3 技术文档/数据库设计.xlsx
+++ b/Docs/3 技术文档/数据库设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019_java\hiabby-blog\Docs\3 技术文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019_java\hiabby\Docs\3 技术文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87955FF8-C5ED-4F54-A183-759AD3E46CBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A32146-B152-45F7-B28B-4164F3AE92C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="675" windowWidth="17280" windowHeight="16005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>文章表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建表语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table article(
+id varchar(32) primary key,
+title varchar(500) comment '标题', 
+pub_date datetime comment '发表时间', 
+change_date datetime comment '修改时间', 
+summary text comment '总结', 
+content text comment '内容', 
+is_md boolean comment '是否为markdown文件', 
+is_hide boolean comment '是否隐藏', 
+is_delete boolean comment '是否删除', 
+file_name boolean comment '文件名称', 
+tags_id boolean comment '标签ID'
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table tags(
+id varchar(32) primary key,
+name varchar(200) comment '标签名称',
+num int comment '数量'
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table temp(
+id varchar(32) primary key,
+temp varchar(200) comment '模板',
+num int comment '数量'
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,9 +128,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,12 +440,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78602BD9-EEAD-41B9-92C6-A3887BC428A5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="42.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
